--- a/멮정리.xlsx
+++ b/멮정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJC\Documents\GitHub\lhs_mjc183exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F102AC-F4B0-47F8-B5DC-7CE515DC7437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D8E614-FAEC-46E3-B257-354DB7B1CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3975" yWindow="615" windowWidth="21600" windowHeight="11385" xr2:uid="{97141DAF-FAEA-430F-A6FE-425ED4E13FA9}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>듀블</t>
   </si>
@@ -363,6 +366,10 @@
   </si>
   <si>
     <t xml:space="preserve">일리움 / 카인 / 칼리 / 아란 / </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">은월, 데벤져, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +787,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1131,6 +1138,9 @@
       <c r="F21" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
